--- a/Notas de atendimento.xlsx
+++ b/Notas de atendimento.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="33">
   <si>
     <t xml:space="preserve">Nota</t>
   </si>
@@ -66,6 +66,9 @@
     <t xml:space="preserve">Var</t>
   </si>
   <si>
+    <t xml:space="preserve">Coeficiente de variação</t>
+  </si>
+  <si>
     <t xml:space="preserve">Desvio</t>
   </si>
   <si>
@@ -102,6 +105,9 @@
     <t xml:space="preserve">(Pmi-X)^2.fi</t>
   </si>
   <si>
+    <t xml:space="preserve">Coeficiente de Variação</t>
+  </si>
+  <si>
     <t xml:space="preserve">Variância</t>
   </si>
   <si>
@@ -113,16 +119,20 @@
   <si>
     <t xml:space="preserve">Desvio Padrão tempo médio do uso de redes sociais</t>
   </si>
+  <si>
+    <t xml:space="preserve">Variação na idade de pessoas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.00%"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -226,7 +236,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -263,10 +273,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -275,43 +281,59 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -713,13 +735,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G70" activeCellId="0" sqref="G70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A72" activeCellId="0" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.58"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -1037,10 +1063,17 @@
         <f aca="false">F13/B13</f>
         <v>9.4336</v>
       </c>
+      <c r="H15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="10" t="n">
+        <f aca="false">(F16/C15)*100</f>
+        <v>62.4271668957803</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E16" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" s="8" t="n">
         <f aca="false">F15^(1/2)</f>
@@ -1067,7 +1100,7 @@
         <v>11</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>1</v>
@@ -1286,10 +1319,17 @@
         <f aca="false">F26/B26</f>
         <v>123.265306122449</v>
       </c>
+      <c r="H28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="10" t="n">
+        <f aca="false">(F29/C28)*100</f>
+        <v>6.48726518454941</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E29" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F29" s="8" t="n">
         <f aca="false">F28^(1/2)</f>
@@ -1316,7 +1356,7 @@
         <v>11</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>1</v>
@@ -1535,10 +1575,17 @@
         <f aca="false">F38/B38</f>
         <v>62.3</v>
       </c>
+      <c r="H40" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="10" t="n">
+        <f aca="false">(F41/C40)*100</f>
+        <v>13.6086808694284</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E41" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F41" s="8" t="n">
         <f aca="false">F40^(1/2)</f>
@@ -1565,7 +1612,7 @@
         <v>11</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>1</v>
@@ -1784,12 +1831,19 @@
         <f aca="false">F50/B50</f>
         <v>15.9875</v>
       </c>
+      <c r="H52" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="10" t="n">
+        <f aca="false">(F53/C52)*100</f>
+        <v>17.5755481085932</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E53" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="F53" s="11" t="n">
         <f aca="false">F52^(1/2)</f>
         <v>3.99843719470495</v>
       </c>
@@ -1817,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2183,17 +2237,173 @@
         <f aca="false">F67/B67</f>
         <v>8.6484</v>
       </c>
+      <c r="H69" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="10" t="n">
+        <f aca="false">(F70/C69)*100</f>
+        <v>45.5234707930435</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E70" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="F70" s="11" t="n">
         <f aca="false">F69^(1/2)</f>
         <v>2.94081621323061</v>
       </c>
     </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="7"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="7"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="7"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="7"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="7"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="7"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="7"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="7"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="7"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="7"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="7"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="8"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="10"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E88" s="5"/>
+      <c r="F88" s="11"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A72:F72"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2209,897 +2419,1238 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M41" activeCellId="0" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="13.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="8.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="9.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="5" width="13.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <f aca="false">AVERAGE(A3:B3)</f>
+        <v>18.5</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <f aca="false">D3*C3</f>
+        <v>185</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <f aca="false">D3-$D$12</f>
+        <v>-7.8</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <f aca="false">F3^2</f>
+        <v>60.84</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <f aca="false">G3*C3</f>
+        <v>608.4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <f aca="false">AVERAGE(A4:B4)</f>
+        <v>21.5</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <f aca="false">D4*C4</f>
+        <v>172</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <f aca="false">D4-$D$12</f>
+        <v>-4.8</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <f aca="false">F4^2</f>
+        <v>23.04</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <f aca="false">G4*C4</f>
+        <v>184.32</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <f aca="false">AVERAGE(A5:B5)</f>
+        <v>24.5</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <f aca="false">D5*C5</f>
+        <v>196</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <f aca="false">D5-$D$12</f>
+        <v>-1.8</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <f aca="false">F5^2</f>
+        <v>3.24</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <f aca="false">G5*C5</f>
+        <v>25.92</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <f aca="false">AVERAGE(A6:B6)</f>
+        <v>27.5</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <f aca="false">D6*C6</f>
+        <v>192.5</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <f aca="false">D6-$D$12</f>
+        <v>1.2</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <f aca="false">F6^2</f>
+        <v>1.44</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <f aca="false">G6*C6</f>
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <f aca="false">AVERAGE(A7:B7)</f>
+        <v>30.5</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <f aca="false">D7*C7</f>
+        <v>183</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <f aca="false">D7-$D$12</f>
+        <v>4.2</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <f aca="false">F7^2</f>
+        <v>17.64</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <f aca="false">G7*C7</f>
+        <v>105.84</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <f aca="false">AVERAGE(A8:B8)</f>
+        <v>33.5</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <f aca="false">D8*C8</f>
+        <v>167.5</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <f aca="false">D8-$D$12</f>
+        <v>7.2</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <f aca="false">F8^2</f>
+        <v>51.84</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <f aca="false">G8*C8</f>
+        <v>259.2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <f aca="false">AVERAGE(A9:B9)</f>
+        <v>36.5</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <f aca="false">D9*C9</f>
+        <v>219</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <f aca="false">D9-$D$12</f>
+        <v>10.2</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <f aca="false">F9^2</f>
+        <v>104.04</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <f aca="false">G9*C9</f>
+        <v>624.24</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="n">
+        <f aca="false">SUM(C3:C9)</f>
+        <v>50</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="n">
+        <f aca="false">SUM(E3:E9)</f>
+        <v>1315</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="H10" s="4" t="n">
+        <f aca="false">SUM(H3:H9)</f>
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="13" t="n">
+        <f aca="false">E10/C10</f>
+        <v>26.3</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="15" t="n">
+        <f aca="false">D14/D12</f>
+        <v>0.229274728998955</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="13" t="n">
+        <f aca="false">H10/C10</f>
+        <v>36.36</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="13" t="n">
+        <f aca="false">D13^(1/2)</f>
+        <v>6.02992537267253</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="4"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="C18" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="E18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="F18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="G18" s="14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="H18" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="n">
+        <v>501</v>
+      </c>
+      <c r="B19" s="17" t="n">
+        <v>526</v>
+      </c>
+      <c r="C19" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" s="18" t="n">
+        <f aca="false">AVERAGE(A19:B19)</f>
+        <v>513.5</v>
+      </c>
+      <c r="E19" s="18" t="n">
+        <f aca="false">D19*C19</f>
+        <v>2054</v>
+      </c>
+      <c r="F19" s="18" t="n">
+        <f aca="false">D19-$D$27</f>
+        <v>-71.875</v>
+      </c>
+      <c r="G19" s="18" t="n">
+        <f aca="false">F19^2</f>
+        <v>5166.015625</v>
+      </c>
+      <c r="H19" s="18" t="n">
+        <f aca="false">G19*C19</f>
+        <v>20664.0625</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="n">
+        <v>526</v>
+      </c>
+      <c r="B20" s="17" t="n">
+        <v>551</v>
+      </c>
+      <c r="C20" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="18" t="n">
+        <f aca="false">AVERAGE(A20:B20)</f>
+        <v>538.5</v>
+      </c>
+      <c r="E20" s="18" t="n">
+        <f aca="false">D20*C20</f>
+        <v>1615.5</v>
+      </c>
+      <c r="F20" s="18" t="n">
+        <f aca="false">D20-$D$27</f>
+        <v>-46.875</v>
+      </c>
+      <c r="G20" s="18" t="n">
+        <f aca="false">F20^2</f>
+        <v>2197.265625</v>
+      </c>
+      <c r="H20" s="18" t="n">
+        <f aca="false">G20*C20</f>
+        <v>6591.796875</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="n">
+        <v>551</v>
+      </c>
+      <c r="B21" s="17" t="n">
+        <v>576</v>
+      </c>
+      <c r="C21" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" s="18" t="n">
+        <f aca="false">AVERAGE(A21:B21)</f>
+        <v>563.5</v>
+      </c>
+      <c r="E21" s="18" t="n">
+        <f aca="false">D21*C21</f>
+        <v>1690.5</v>
+      </c>
+      <c r="F21" s="18" t="n">
+        <f aca="false">D21-$D$27</f>
+        <v>-21.875</v>
+      </c>
+      <c r="G21" s="18" t="n">
+        <f aca="false">F21^2</f>
+        <v>478.515625</v>
+      </c>
+      <c r="H21" s="18" t="n">
+        <f aca="false">G21*C21</f>
+        <v>1435.546875</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="n">
+        <v>576</v>
+      </c>
+      <c r="B22" s="17" t="n">
+        <v>601</v>
+      </c>
+      <c r="C22" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" s="18" t="n">
+        <f aca="false">AVERAGE(A22:B22)</f>
+        <v>588.5</v>
+      </c>
+      <c r="E22" s="18" t="n">
+        <f aca="false">D22*C22</f>
+        <v>1177</v>
+      </c>
+      <c r="F22" s="18" t="n">
+        <f aca="false">D22-$D$27</f>
+        <v>3.125</v>
+      </c>
+      <c r="G22" s="18" t="n">
+        <f aca="false">F22^2</f>
+        <v>9.765625</v>
+      </c>
+      <c r="H22" s="18" t="n">
+        <f aca="false">G22*C22</f>
+        <v>19.53125</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="17" t="n">
+        <v>601</v>
+      </c>
+      <c r="B23" s="17" t="n">
+        <v>626</v>
+      </c>
+      <c r="C23" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="D23" s="18" t="n">
+        <f aca="false">AVERAGE(A23:B23)</f>
+        <v>613.5</v>
+      </c>
+      <c r="E23" s="18" t="n">
+        <f aca="false">D23*C23</f>
+        <v>3681</v>
+      </c>
+      <c r="F23" s="18" t="n">
+        <f aca="false">D23-$D$27</f>
+        <v>28.125</v>
+      </c>
+      <c r="G23" s="18" t="n">
+        <f aca="false">F23^2</f>
+        <v>791.015625</v>
+      </c>
+      <c r="H23" s="18" t="n">
+        <f aca="false">G23*C23</f>
+        <v>4746.09375</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="17" t="n">
+        <v>626</v>
+      </c>
+      <c r="B24" s="17" t="n">
+        <v>651</v>
+      </c>
+      <c r="C24" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="D24" s="18" t="n">
+        <f aca="false">AVERAGE(A24:B24)</f>
+        <v>638.5</v>
+      </c>
+      <c r="E24" s="18" t="n">
+        <f aca="false">D24*C24</f>
+        <v>3831</v>
+      </c>
+      <c r="F24" s="18" t="n">
+        <f aca="false">D24-$D$27</f>
+        <v>53.125</v>
+      </c>
+      <c r="G24" s="18" t="n">
+        <f aca="false">F24^2</f>
+        <v>2822.265625</v>
+      </c>
+      <c r="H24" s="18" t="n">
+        <f aca="false">G24*C24</f>
+        <v>16933.59375</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="19" t="n">
+        <f aca="false">SUM(C19:C24)</f>
+        <v>24</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22" t="n">
+        <f aca="false">SUM(E19:E24)</f>
+        <v>14049</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="22" t="n">
+        <f aca="false">SUM(H19:H24)</f>
+        <v>50390.625</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="24" t="n">
+        <f aca="false">E25/C25</f>
+        <v>585.375</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="15" t="n">
+        <f aca="false">D29/D27</f>
+        <v>0.0782771636697372</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="24" t="n">
+        <f aca="false">H25/C25</f>
+        <v>2099.609375</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="24" t="n">
+        <f aca="false">D28^(1/2)</f>
+        <v>45.8214946831724</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" s="18" t="n">
+        <f aca="false">AVERAGE(A34:B34)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="18" t="n">
+        <f aca="false">D34*C34</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="18" t="n">
+        <f aca="false">D34-$D$43</f>
+        <v>-2.8</v>
+      </c>
+      <c r="G34" s="18" t="n">
+        <f aca="false">F34^2</f>
+        <v>7.84</v>
+      </c>
+      <c r="H34" s="18" t="n">
+        <f aca="false">G34*C34</f>
+        <v>15.68</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" s="17" t="n">
+        <v>9</v>
+      </c>
+      <c r="D35" s="18" t="n">
+        <f aca="false">AVERAGE(A35:B35)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E35" s="18" t="n">
+        <f aca="false">D35*C35</f>
+        <v>13.5</v>
+      </c>
+      <c r="F35" s="18" t="n">
+        <f aca="false">D35-$D$43</f>
+        <v>-1.8</v>
+      </c>
+      <c r="G35" s="18" t="n">
+        <f aca="false">F35^2</f>
+        <v>3.24</v>
+      </c>
+      <c r="H35" s="18" t="n">
+        <f aca="false">G35*C35</f>
+        <v>29.16</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="D36" s="18" t="n">
+        <f aca="false">AVERAGE(A36:B36)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E36" s="18" t="n">
+        <f aca="false">D36*C36</f>
+        <v>30</v>
+      </c>
+      <c r="F36" s="18" t="n">
+        <f aca="false">D36-$D$43</f>
+        <v>-0.8</v>
+      </c>
+      <c r="G36" s="18" t="n">
+        <f aca="false">F36^2</f>
+        <v>0.64</v>
+      </c>
+      <c r="H36" s="18" t="n">
+        <f aca="false">G36*C36</f>
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" s="17" t="n">
+        <v>11</v>
+      </c>
+      <c r="D37" s="18" t="n">
+        <f aca="false">AVERAGE(A37:B37)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E37" s="18" t="n">
+        <f aca="false">D37*C37</f>
+        <v>38.5</v>
+      </c>
+      <c r="F37" s="18" t="n">
+        <f aca="false">D37-$D$43</f>
+        <v>0.2</v>
+      </c>
+      <c r="G37" s="18" t="n">
+        <f aca="false">F37^2</f>
+        <v>0.0400000000000001</v>
+      </c>
+      <c r="H37" s="18" t="n">
+        <f aca="false">G37*C37</f>
+        <v>0.440000000000001</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" s="17" t="n">
+        <v>9</v>
+      </c>
+      <c r="D38" s="18" t="n">
+        <f aca="false">AVERAGE(A38:B38)</f>
+        <v>4.5</v>
+      </c>
+      <c r="E38" s="18" t="n">
+        <f aca="false">D38*C38</f>
+        <v>40.5</v>
+      </c>
+      <c r="F38" s="18" t="n">
+        <f aca="false">D38-$D$43</f>
+        <v>1.2</v>
+      </c>
+      <c r="G38" s="18" t="n">
+        <f aca="false">F38^2</f>
+        <v>1.44</v>
+      </c>
+      <c r="H38" s="18" t="n">
+        <f aca="false">G38*C38</f>
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C39" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" s="18" t="n">
+        <f aca="false">AVERAGE(A39:B39)</f>
+        <v>5.5</v>
+      </c>
+      <c r="E39" s="18" t="n">
+        <f aca="false">D39*C39</f>
+        <v>22</v>
+      </c>
+      <c r="F39" s="18" t="n">
+        <f aca="false">D39-$D$43</f>
+        <v>2.2</v>
+      </c>
+      <c r="G39" s="18" t="n">
+        <f aca="false">F39^2</f>
+        <v>4.84</v>
+      </c>
+      <c r="H39" s="18" t="n">
+        <f aca="false">G39*C39</f>
+        <v>19.36</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="B40" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C40" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" s="18" t="n">
+        <f aca="false">AVERAGE(A40:B40)</f>
+        <v>6.5</v>
+      </c>
+      <c r="E40" s="18" t="n">
+        <f aca="false">D40*C40</f>
+        <v>19.5</v>
+      </c>
+      <c r="F40" s="18" t="n">
+        <f aca="false">D40-$D$43</f>
+        <v>3.2</v>
+      </c>
+      <c r="G40" s="18" t="n">
+        <f aca="false">F40^2</f>
+        <v>10.24</v>
+      </c>
+      <c r="H40" s="18" t="n">
+        <f aca="false">G40*C40</f>
+        <v>30.72</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="19" t="n">
+        <f aca="false">SUM(C34:C40)</f>
+        <v>50</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22" t="n">
+        <f aca="false">SUM(E34:E40)</f>
+        <v>165</v>
+      </c>
+      <c r="F41" s="21"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="22" t="n">
+        <f aca="false">SUM(H34:H40)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="24" t="n">
+        <f aca="false">E41/C41</f>
+        <v>3.3</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="15" t="n">
+        <f aca="false">D45/D43</f>
+        <v>0.461562006415994</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="24" t="n">
+        <f aca="false">H41/C41</f>
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="24" t="n">
+        <f aca="false">D44^(1/2)</f>
+        <v>1.52315462117278</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="17" t="n">
         <v>17</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B49" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C49" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <f aca="false">AVERAGE(A2:B2)</f>
+      <c r="D49" s="18" t="n">
+        <f aca="false">AVERAGE(A49:B49)</f>
         <v>18.5</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <f aca="false">D2*C2</f>
+      <c r="E49" s="18" t="n">
+        <f aca="false">D49*C49</f>
         <v>185</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <f aca="false">D2-$D$11</f>
+      <c r="F49" s="18" t="n">
+        <f aca="false">D49-$D$58</f>
         <v>-7.8</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <f aca="false">F2^2</f>
+      <c r="G49" s="18" t="n">
+        <f aca="false">F49^2</f>
         <v>60.84</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <f aca="false">G2*C2</f>
+      <c r="H49" s="18" t="n">
+        <f aca="false">G49*C49</f>
         <v>608.4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B50" s="17" t="n">
         <v>23</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C50" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <f aca="false">AVERAGE(A3:B3)</f>
+      <c r="D50" s="18" t="n">
+        <f aca="false">AVERAGE(A50:B50)</f>
         <v>21.5</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <f aca="false">D3*C3</f>
+      <c r="E50" s="18" t="n">
+        <f aca="false">D50*C50</f>
         <v>172</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <f aca="false">D3-$D$11</f>
+      <c r="F50" s="18" t="n">
+        <f aca="false">D50-$D$58</f>
         <v>-4.8</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <f aca="false">F3^2</f>
+      <c r="G50" s="18" t="n">
+        <f aca="false">F50^2</f>
         <v>23.04</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <f aca="false">G3*C3</f>
+      <c r="H50" s="18" t="n">
+        <f aca="false">G50*C50</f>
         <v>184.32</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="17" t="n">
         <v>23</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B51" s="17" t="n">
         <v>26</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C51" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <f aca="false">AVERAGE(A4:B4)</f>
+      <c r="D51" s="18" t="n">
+        <f aca="false">AVERAGE(A51:B51)</f>
         <v>24.5</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <f aca="false">D4*C4</f>
+      <c r="E51" s="18" t="n">
+        <f aca="false">D51*C51</f>
         <v>196</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <f aca="false">D4-$D$11</f>
+      <c r="F51" s="18" t="n">
+        <f aca="false">D51-$D$58</f>
         <v>-1.8</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <f aca="false">F4^2</f>
+      <c r="G51" s="18" t="n">
+        <f aca="false">F51^2</f>
         <v>3.24</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <f aca="false">G4*C4</f>
+      <c r="H51" s="18" t="n">
+        <f aca="false">G51*C51</f>
         <v>25.92</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="17" t="n">
         <v>26</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B52" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C52" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <f aca="false">AVERAGE(A5:B5)</f>
+      <c r="D52" s="18" t="n">
+        <f aca="false">AVERAGE(A52:B52)</f>
         <v>27.5</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <f aca="false">D5*C5</f>
+      <c r="E52" s="18" t="n">
+        <f aca="false">D52*C52</f>
         <v>192.5</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <f aca="false">D5-$D$11</f>
+      <c r="F52" s="18" t="n">
+        <f aca="false">D52-$D$58</f>
         <v>1.2</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <f aca="false">F5^2</f>
+      <c r="G52" s="18" t="n">
+        <f aca="false">F52^2</f>
         <v>1.44</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <f aca="false">G5*C5</f>
+      <c r="H52" s="18" t="n">
+        <f aca="false">G52*C52</f>
         <v>10.08</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B53" s="17" t="n">
         <v>32</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C53" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <f aca="false">AVERAGE(A6:B6)</f>
+      <c r="D53" s="18" t="n">
+        <f aca="false">AVERAGE(A53:B53)</f>
         <v>30.5</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <f aca="false">D6*C6</f>
+      <c r="E53" s="18" t="n">
+        <f aca="false">D53*C53</f>
         <v>183</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <f aca="false">D6-$D$11</f>
+      <c r="F53" s="18" t="n">
+        <f aca="false">D53-$D$58</f>
         <v>4.2</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <f aca="false">F6^2</f>
+      <c r="G53" s="18" t="n">
+        <f aca="false">F53^2</f>
         <v>17.64</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <f aca="false">G6*C6</f>
+      <c r="H53" s="18" t="n">
+        <f aca="false">G53*C53</f>
         <v>105.84</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="17" t="n">
         <v>32</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B54" s="17" t="n">
         <v>35</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C54" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <f aca="false">AVERAGE(A7:B7)</f>
+      <c r="D54" s="18" t="n">
+        <f aca="false">AVERAGE(A54:B54)</f>
         <v>33.5</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <f aca="false">D7*C7</f>
+      <c r="E54" s="18" t="n">
+        <f aca="false">D54*C54</f>
         <v>167.5</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <f aca="false">D7-$D$11</f>
+      <c r="F54" s="18" t="n">
+        <f aca="false">D54-$D$58</f>
         <v>7.2</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <f aca="false">F7^2</f>
+      <c r="G54" s="18" t="n">
+        <f aca="false">F54^2</f>
         <v>51.84</v>
       </c>
-      <c r="H7" s="0" t="n">
-        <f aca="false">G7*C7</f>
+      <c r="H54" s="18" t="n">
+        <f aca="false">G54*C54</f>
         <v>259.2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="17" t="n">
         <v>35</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B55" s="17" t="n">
         <v>38</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C55" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <f aca="false">AVERAGE(A8:B8)</f>
+      <c r="D55" s="18" t="n">
+        <f aca="false">AVERAGE(A55:B55)</f>
         <v>36.5</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <f aca="false">D8*C8</f>
+      <c r="E55" s="18" t="n">
+        <f aca="false">D55*C55</f>
         <v>219</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <f aca="false">D8-$D$11</f>
+      <c r="F55" s="18" t="n">
+        <f aca="false">D55-$D$58</f>
         <v>10.2</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">F8^2</f>
+      <c r="G55" s="18" t="n">
+        <f aca="false">F55^2</f>
         <v>104.04</v>
       </c>
-      <c r="H8" s="0" t="n">
-        <f aca="false">G8*C8</f>
+      <c r="H55" s="18" t="n">
+        <f aca="false">G55*C55</f>
         <v>624.24</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10" t="n">
-        <f aca="false">SUM(C2:C8)</f>
+      <c r="B56" s="20"/>
+      <c r="C56" s="19" t="n">
+        <f aca="false">SUM(C49:C55)</f>
         <v>50</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="n">
-        <f aca="false">SUM(E2:E8)</f>
+      <c r="D56" s="21"/>
+      <c r="E56" s="22" t="n">
+        <f aca="false">SUM(E49:E55)</f>
         <v>1315</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="H9" s="10" t="n">
-        <f aca="false">SUM(H2:H8)</f>
+      <c r="F56" s="21"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="22" t="n">
+        <f aca="false">SUM(H49:H55)</f>
         <v>1818</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="10" t="s">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C58" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="11" t="n">
-        <f aca="false">E9/C9</f>
+      <c r="D58" s="24" t="n">
+        <f aca="false">E56/C56</f>
         <v>26.3</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="11" t="n">
-        <f aca="false">H9/C9</f>
+      <c r="F58" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" s="15" t="n">
+        <f aca="false">D60/D58</f>
+        <v>0.229274728998956</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C59" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="24" t="n">
+        <f aca="false">H56/C56</f>
         <v>36.36</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="11" t="n">
-        <f aca="false">D12^(1/2)</f>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C60" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="24" t="n">
+        <f aca="false">D59^(1/2)</f>
         <v>6.02992537267253</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="n">
-        <v>501</v>
-      </c>
-      <c r="B18" s="14" t="n">
-        <v>526</v>
-      </c>
-      <c r="C18" s="14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" s="15" t="n">
-        <f aca="false">AVERAGE(A18:B18)</f>
-        <v>513.5</v>
-      </c>
-      <c r="E18" s="15" t="n">
-        <f aca="false">D18*C18</f>
-        <v>2054</v>
-      </c>
-      <c r="F18" s="15" t="n">
-        <f aca="false">D18-$D$26</f>
-        <v>-71.875</v>
-      </c>
-      <c r="G18" s="15" t="n">
-        <f aca="false">F18^2</f>
-        <v>5166.015625</v>
-      </c>
-      <c r="H18" s="15" t="n">
-        <f aca="false">G18*C18</f>
-        <v>20664.0625</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="n">
-        <v>526</v>
-      </c>
-      <c r="B19" s="14" t="n">
-        <v>551</v>
-      </c>
-      <c r="C19" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" s="15" t="n">
-        <f aca="false">AVERAGE(A19:B19)</f>
-        <v>538.5</v>
-      </c>
-      <c r="E19" s="15" t="n">
-        <f aca="false">D19*C19</f>
-        <v>1615.5</v>
-      </c>
-      <c r="F19" s="15" t="n">
-        <f aca="false">D19-$D$26</f>
-        <v>-46.875</v>
-      </c>
-      <c r="G19" s="15" t="n">
-        <f aca="false">F19^2</f>
-        <v>2197.265625</v>
-      </c>
-      <c r="H19" s="15" t="n">
-        <f aca="false">G19*C19</f>
-        <v>6591.796875</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="n">
-        <v>551</v>
-      </c>
-      <c r="B20" s="14" t="n">
-        <v>576</v>
-      </c>
-      <c r="C20" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D20" s="15" t="n">
-        <f aca="false">AVERAGE(A20:B20)</f>
-        <v>563.5</v>
-      </c>
-      <c r="E20" s="15" t="n">
-        <f aca="false">D20*C20</f>
-        <v>1690.5</v>
-      </c>
-      <c r="F20" s="15" t="n">
-        <f aca="false">D20-$D$26</f>
-        <v>-21.875</v>
-      </c>
-      <c r="G20" s="15" t="n">
-        <f aca="false">F20^2</f>
-        <v>478.515625</v>
-      </c>
-      <c r="H20" s="15" t="n">
-        <f aca="false">G20*C20</f>
-        <v>1435.546875</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="n">
-        <v>576</v>
-      </c>
-      <c r="B21" s="14" t="n">
-        <v>601</v>
-      </c>
-      <c r="C21" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" s="15" t="n">
-        <f aca="false">AVERAGE(A21:B21)</f>
-        <v>588.5</v>
-      </c>
-      <c r="E21" s="15" t="n">
-        <f aca="false">D21*C21</f>
-        <v>1177</v>
-      </c>
-      <c r="F21" s="15" t="n">
-        <f aca="false">D21-$D$26</f>
-        <v>3.125</v>
-      </c>
-      <c r="G21" s="15" t="n">
-        <f aca="false">F21^2</f>
-        <v>9.765625</v>
-      </c>
-      <c r="H21" s="15" t="n">
-        <f aca="false">G21*C21</f>
-        <v>19.53125</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="n">
-        <v>601</v>
-      </c>
-      <c r="B22" s="14" t="n">
-        <v>626</v>
-      </c>
-      <c r="C22" s="14" t="n">
-        <v>6</v>
-      </c>
-      <c r="D22" s="15" t="n">
-        <f aca="false">AVERAGE(A22:B22)</f>
-        <v>613.5</v>
-      </c>
-      <c r="E22" s="15" t="n">
-        <f aca="false">D22*C22</f>
-        <v>3681</v>
-      </c>
-      <c r="F22" s="15" t="n">
-        <f aca="false">D22-$D$26</f>
-        <v>28.125</v>
-      </c>
-      <c r="G22" s="15" t="n">
-        <f aca="false">F22^2</f>
-        <v>791.015625</v>
-      </c>
-      <c r="H22" s="15" t="n">
-        <f aca="false">G22*C22</f>
-        <v>4746.09375</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="n">
-        <v>626</v>
-      </c>
-      <c r="B23" s="14" t="n">
-        <v>651</v>
-      </c>
-      <c r="C23" s="14" t="n">
-        <v>6</v>
-      </c>
-      <c r="D23" s="15" t="n">
-        <f aca="false">AVERAGE(A23:B23)</f>
-        <v>638.5</v>
-      </c>
-      <c r="E23" s="15" t="n">
-        <f aca="false">D23*C23</f>
-        <v>3831</v>
-      </c>
-      <c r="F23" s="15" t="n">
-        <f aca="false">D23-$D$26</f>
-        <v>53.125</v>
-      </c>
-      <c r="G23" s="15" t="n">
-        <f aca="false">F23^2</f>
-        <v>2822.265625</v>
-      </c>
-      <c r="H23" s="15" t="n">
-        <f aca="false">G23*C23</f>
-        <v>16933.59375</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="16" t="n">
-        <f aca="false">SUM(C18:C23)</f>
-        <v>24</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="n">
-        <f aca="false">SUM(E18:E23)</f>
-        <v>14049</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="19" t="n">
-        <f aca="false">SUM(H18:H23)</f>
-        <v>50390.625</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="21" t="n">
-        <f aca="false">E24/C24</f>
-        <v>585.375</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="21" t="n">
-        <f aca="false">H24/C24</f>
-        <v>2099.609375</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="21" t="n">
-        <f aca="false">D27^(1/2)</f>
-        <v>45.8214946831724</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B33" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D33" s="15" t="n">
-        <f aca="false">AVERAGE(A33:B33)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E33" s="15" t="n">
-        <f aca="false">D33*C33</f>
-        <v>1</v>
-      </c>
-      <c r="F33" s="15" t="n">
-        <f aca="false">D33-$D$42</f>
-        <v>-2.8</v>
-      </c>
-      <c r="G33" s="15" t="n">
-        <f aca="false">F33^2</f>
-        <v>7.84</v>
-      </c>
-      <c r="H33" s="15" t="n">
-        <f aca="false">G33*C33</f>
-        <v>15.68</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C34" s="14" t="n">
-        <v>9</v>
-      </c>
-      <c r="D34" s="15" t="n">
-        <f aca="false">AVERAGE(A34:B34)</f>
-        <v>1.5</v>
-      </c>
-      <c r="E34" s="15" t="n">
-        <f aca="false">D34*C34</f>
-        <v>13.5</v>
-      </c>
-      <c r="F34" s="15" t="n">
-        <f aca="false">D34-$D$42</f>
-        <v>-1.8</v>
-      </c>
-      <c r="G34" s="15" t="n">
-        <f aca="false">F34^2</f>
-        <v>3.24</v>
-      </c>
-      <c r="H34" s="15" t="n">
-        <f aca="false">G34*C34</f>
-        <v>29.16</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="B35" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C35" s="14" t="n">
-        <v>12</v>
-      </c>
-      <c r="D35" s="15" t="n">
-        <f aca="false">AVERAGE(A35:B35)</f>
-        <v>2.5</v>
-      </c>
-      <c r="E35" s="15" t="n">
-        <f aca="false">D35*C35</f>
-        <v>30</v>
-      </c>
-      <c r="F35" s="15" t="n">
-        <f aca="false">D35-$D$42</f>
-        <v>-0.8</v>
-      </c>
-      <c r="G35" s="15" t="n">
-        <f aca="false">F35^2</f>
-        <v>0.64</v>
-      </c>
-      <c r="H35" s="15" t="n">
-        <f aca="false">G35*C35</f>
-        <v>7.68</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B36" s="14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C36" s="14" t="n">
-        <v>11</v>
-      </c>
-      <c r="D36" s="15" t="n">
-        <f aca="false">AVERAGE(A36:B36)</f>
-        <v>3.5</v>
-      </c>
-      <c r="E36" s="15" t="n">
-        <f aca="false">D36*C36</f>
-        <v>38.5</v>
-      </c>
-      <c r="F36" s="15" t="n">
-        <f aca="false">D36-$D$42</f>
-        <v>0.2</v>
-      </c>
-      <c r="G36" s="15" t="n">
-        <f aca="false">F36^2</f>
-        <v>0.0400000000000001</v>
-      </c>
-      <c r="H36" s="15" t="n">
-        <f aca="false">G36*C36</f>
-        <v>0.440000000000001</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B37" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C37" s="14" t="n">
-        <v>9</v>
-      </c>
-      <c r="D37" s="15" t="n">
-        <f aca="false">AVERAGE(A37:B37)</f>
-        <v>4.5</v>
-      </c>
-      <c r="E37" s="15" t="n">
-        <f aca="false">D37*C37</f>
-        <v>40.5</v>
-      </c>
-      <c r="F37" s="15" t="n">
-        <f aca="false">D37-$D$42</f>
-        <v>1.2</v>
-      </c>
-      <c r="G37" s="15" t="n">
-        <f aca="false">F37^2</f>
-        <v>1.44</v>
-      </c>
-      <c r="H37" s="15" t="n">
-        <f aca="false">G37*C37</f>
-        <v>12.96</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B38" s="14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C38" s="14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D38" s="15" t="n">
-        <f aca="false">AVERAGE(A38:B38)</f>
-        <v>5.5</v>
-      </c>
-      <c r="E38" s="15" t="n">
-        <f aca="false">D38*C38</f>
-        <v>22</v>
-      </c>
-      <c r="F38" s="15" t="n">
-        <f aca="false">D38-$D$42</f>
-        <v>2.2</v>
-      </c>
-      <c r="G38" s="15" t="n">
-        <f aca="false">F38^2</f>
-        <v>4.84</v>
-      </c>
-      <c r="H38" s="15" t="n">
-        <f aca="false">G38*C38</f>
-        <v>19.36</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14" t="n">
-        <v>6</v>
-      </c>
-      <c r="B39" s="14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C39" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D39" s="15" t="n">
-        <f aca="false">AVERAGE(A39:B39)</f>
-        <v>6.5</v>
-      </c>
-      <c r="E39" s="15" t="n">
-        <f aca="false">D39*C39</f>
-        <v>19.5</v>
-      </c>
-      <c r="F39" s="15" t="n">
-        <f aca="false">D39-$D$42</f>
-        <v>3.2</v>
-      </c>
-      <c r="G39" s="15" t="n">
-        <f aca="false">F39^2</f>
-        <v>10.24</v>
-      </c>
-      <c r="H39" s="15" t="n">
-        <f aca="false">G39*C39</f>
-        <v>30.72</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="16" t="n">
-        <f aca="false">SUM(C33:C39)</f>
-        <v>50</v>
-      </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="19" t="n">
-        <f aca="false">SUM(E33:E39)</f>
-        <v>165</v>
-      </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="19" t="n">
-        <f aca="false">SUM(H33:H39)</f>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="21" t="n">
-        <f aca="false">E40/C40</f>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="21" t="n">
-        <f aca="false">H40/C40</f>
-        <v>2.32</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="21" t="n">
-        <f aca="false">D43^(1/2)</f>
-        <v>1.52315462117278</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A31:H31"/>
+  <mergeCells count="3">
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A47:H47"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Notas de atendimento.xlsx
+++ b/Notas de atendimento.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="42">
   <si>
     <t xml:space="preserve">Nota</t>
   </si>
@@ -121,6 +121,33 @@
   </si>
   <si>
     <t xml:space="preserve">Variação na idade de pessoas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idade alunos curso de Marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 | --- 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 | --- 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 | --- 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 | --- 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 | --- 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 | --- 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idades de Homens e Mulheres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salarios empresa</t>
   </si>
 </sst>
 </file>
@@ -236,7 +263,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -249,15 +276,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -273,11 +300,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -285,12 +308,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -335,6 +354,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -743,27 +766,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="20.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="6.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -774,11 +797,11 @@
       <c r="B2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="3" t="n">
         <f aca="false">A2*B2</f>
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="3" t="n">
         <f aca="false">A2-$C$15</f>
         <v>-4.92</v>
       </c>
@@ -798,11 +821,11 @@
       <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="3" t="n">
         <f aca="false">A3*B3</f>
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="3" t="n">
         <f aca="false">A3-$C$15</f>
         <v>-3.92</v>
       </c>
@@ -822,11 +845,11 @@
       <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="3" t="n">
         <f aca="false">A4*B4</f>
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="3" t="n">
         <f aca="false">A4-$C$15</f>
         <v>-2.92</v>
       </c>
@@ -846,11 +869,11 @@
       <c r="B5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="3" t="n">
         <f aca="false">A5*B5</f>
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="3" t="n">
         <f aca="false">A5-$C$15</f>
         <v>-1.92</v>
       </c>
@@ -870,11 +893,11 @@
       <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="3" t="n">
         <f aca="false">A6*B6</f>
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="3" t="n">
         <f aca="false">A6-$C$15</f>
         <v>-0.92</v>
       </c>
@@ -894,11 +917,11 @@
       <c r="B7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="3" t="n">
         <f aca="false">A7*B7</f>
         <v>15</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="3" t="n">
         <f aca="false">A7-$C$15</f>
         <v>0.0800000000000001</v>
       </c>
@@ -918,11 +941,11 @@
       <c r="B8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="3" t="n">
         <f aca="false">A8*B8</f>
         <v>18</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="3" t="n">
         <f aca="false">A8-$C$15</f>
         <v>1.08</v>
       </c>
@@ -942,11 +965,11 @@
       <c r="B9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="3" t="n">
         <f aca="false">A9*B9</f>
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="3" t="n">
         <f aca="false">A9-$C$15</f>
         <v>2.08</v>
       </c>
@@ -966,11 +989,11 @@
       <c r="B10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="3" t="n">
         <f aca="false">A10*B10</f>
         <v>24</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="3" t="n">
         <f aca="false">A10-$C$15</f>
         <v>3.08</v>
       </c>
@@ -990,11 +1013,11 @@
       <c r="B11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="3" t="n">
         <f aca="false">A11*B11</f>
         <v>0</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="3" t="n">
         <f aca="false">A11-$C$15</f>
         <v>4.08</v>
       </c>
@@ -1014,11 +1037,11 @@
       <c r="B12" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="3" t="n">
         <f aca="false">A12*B12</f>
         <v>30</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="3" t="n">
         <f aca="false">A12-$C$15</f>
         <v>5.08</v>
       </c>
@@ -1032,47 +1055,47 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="5" t="n">
         <f aca="false">SUM(B2:B12)</f>
         <v>25</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="5" t="n">
         <f aca="false">SUM(C2:C12)</f>
         <v>123</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="5" t="n">
         <f aca="false">SUM(F2:F12)</f>
         <v>235.84</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="3" t="n">
         <f aca="false">C13/B13</f>
         <v>4.92</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="8" t="n">
         <f aca="false">F13/B13</f>
         <v>9.4336</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="10" t="n">
+      <c r="I15" s="9" t="n">
         <f aca="false">(F16/C15)*100</f>
         <v>62.4271668957803</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="8" t="n">
@@ -1081,22 +1104,22 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -1113,11 +1136,11 @@
       <c r="B20" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="3" t="n">
         <f aca="false">A20*B20</f>
         <v>304</v>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="D20" s="3" t="n">
         <f aca="false">A20-$C$28</f>
         <v>-19.1428571428571</v>
       </c>
@@ -1143,11 +1166,11 @@
       <c r="B21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="3" t="n">
         <f aca="false">A21*B21</f>
         <v>800</v>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="D21" s="3" t="n">
         <f aca="false">A21-$C$28</f>
         <v>-11.1428571428571</v>
       </c>
@@ -1173,11 +1196,11 @@
       <c r="B22" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="3" t="n">
         <f aca="false">A22*B22</f>
         <v>328</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="3" t="n">
         <f aca="false">A22-$C$28</f>
         <v>-7.14285714285714</v>
       </c>
@@ -1203,11 +1226,11 @@
       <c r="B23" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="3" t="n">
         <f aca="false">A23*B23</f>
         <v>880</v>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="D23" s="3" t="n">
         <f aca="false">A23-$C$28</f>
         <v>4.85714285714286</v>
       </c>
@@ -1233,11 +1256,11 @@
       <c r="B24" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" s="3" t="n">
         <f aca="false">A24*B24</f>
         <v>546</v>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="D24" s="3" t="n">
         <f aca="false">A24-$C$28</f>
         <v>10.8571428571429</v>
       </c>
@@ -1263,11 +1286,11 @@
       <c r="B25" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="3" t="n">
         <f aca="false">A25*B25</f>
         <v>736</v>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="D25" s="3" t="n">
         <f aca="false">A25-$C$28</f>
         <v>12.8571428571429</v>
       </c>
@@ -1287,48 +1310,48 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="5" t="n">
         <f aca="false">SUM(B20:B25)</f>
         <v>21</v>
       </c>
-      <c r="C26" s="4" t="n">
+      <c r="C26" s="5" t="n">
         <f aca="false">SUM(C20:C25)</f>
         <v>3594</v>
       </c>
-      <c r="F26" s="4" t="n">
+      <c r="F26" s="5" t="n">
         <f aca="false">SUM(F20:F25)</f>
         <v>2588.57142857143</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="5" t="n">
+      <c r="C28" s="3" t="n">
         <f aca="false">C26/B26</f>
         <v>171.142857142857</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="8" t="n">
         <f aca="false">F26/B26</f>
         <v>123.265306122449</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="10" t="n">
+      <c r="I28" s="9" t="n">
         <f aca="false">(F29/C28)*100</f>
         <v>6.48726518454941</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F29" s="8" t="n">
@@ -1337,22 +1360,22 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -1369,11 +1392,11 @@
       <c r="B32" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C32" s="5" t="n">
+      <c r="C32" s="3" t="n">
         <f aca="false">A32*B32</f>
         <v>147</v>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="D32" s="3" t="n">
         <f aca="false">A32-$C$40</f>
         <v>-9</v>
       </c>
@@ -1399,11 +1422,11 @@
       <c r="B33" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C33" s="5" t="n">
+      <c r="C33" s="3" t="n">
         <f aca="false">A33*B33</f>
         <v>153</v>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="D33" s="3" t="n">
         <f aca="false">A33-$C$40</f>
         <v>-7</v>
       </c>
@@ -1429,11 +1452,11 @@
       <c r="B34" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C34" s="5" t="n">
+      <c r="C34" s="3" t="n">
         <f aca="false">A34*B34</f>
         <v>265</v>
       </c>
-      <c r="D34" s="5" t="n">
+      <c r="D34" s="3" t="n">
         <f aca="false">A34-$C$40</f>
         <v>-5</v>
       </c>
@@ -1459,11 +1482,11 @@
       <c r="B35" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C35" s="5" t="n">
+      <c r="C35" s="3" t="n">
         <f aca="false">A35*B35</f>
         <v>120</v>
       </c>
-      <c r="D35" s="5" t="n">
+      <c r="D35" s="3" t="n">
         <f aca="false">A35-$C$40</f>
         <v>2</v>
       </c>
@@ -1489,11 +1512,11 @@
       <c r="B36" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C36" s="5" t="n">
+      <c r="C36" s="3" t="n">
         <f aca="false">A36*B36</f>
         <v>195</v>
       </c>
-      <c r="D36" s="5" t="n">
+      <c r="D36" s="3" t="n">
         <f aca="false">A36-$C$40</f>
         <v>7</v>
       </c>
@@ -1519,11 +1542,11 @@
       <c r="B37" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C37" s="5" t="n">
+      <c r="C37" s="3" t="n">
         <f aca="false">A37*B37</f>
         <v>280</v>
       </c>
-      <c r="D37" s="5" t="n">
+      <c r="D37" s="3" t="n">
         <f aca="false">A37-$C$40</f>
         <v>12</v>
       </c>
@@ -1543,48 +1566,48 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="5" t="n">
         <f aca="false">SUM(B32:B37)</f>
         <v>20</v>
       </c>
-      <c r="C38" s="4" t="n">
+      <c r="C38" s="5" t="n">
         <f aca="false">SUM(C32:C37)</f>
         <v>1160</v>
       </c>
-      <c r="F38" s="4" t="n">
+      <c r="F38" s="5" t="n">
         <f aca="false">SUM(F32:F37)</f>
         <v>1246</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="5" t="n">
+      <c r="C40" s="3" t="n">
         <f aca="false">C38/B38</f>
         <v>58</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="8" t="n">
         <f aca="false">F38/B38</f>
         <v>62.3</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="10" t="n">
+      <c r="I40" s="9" t="n">
         <f aca="false">(F41/C40)*100</f>
         <v>13.6086808694284</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F41" s="8" t="n">
@@ -1593,22 +1616,22 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -1625,11 +1648,11 @@
       <c r="B44" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C44" s="5" t="n">
+      <c r="C44" s="3" t="n">
         <f aca="false">A44*B44</f>
         <v>90</v>
       </c>
-      <c r="D44" s="5" t="n">
+      <c r="D44" s="3" t="n">
         <f aca="false">A44-$C$52</f>
         <v>-4.75</v>
       </c>
@@ -1655,11 +1678,11 @@
       <c r="B45" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C45" s="5" t="n">
+      <c r="C45" s="3" t="n">
         <f aca="false">A45*B45</f>
         <v>40</v>
       </c>
-      <c r="D45" s="5" t="n">
+      <c r="D45" s="3" t="n">
         <f aca="false">A45-$C$52</f>
         <v>-2.75</v>
       </c>
@@ -1685,11 +1708,11 @@
       <c r="B46" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C46" s="5" t="n">
+      <c r="C46" s="3" t="n">
         <f aca="false">A46*B46</f>
         <v>63</v>
       </c>
-      <c r="D46" s="5" t="n">
+      <c r="D46" s="3" t="n">
         <f aca="false">A46-$C$52</f>
         <v>-1.75</v>
       </c>
@@ -1715,11 +1738,11 @@
       <c r="B47" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C47" s="5" t="n">
+      <c r="C47" s="3" t="n">
         <f aca="false">A47*B47</f>
         <v>72</v>
       </c>
-      <c r="D47" s="5" t="n">
+      <c r="D47" s="3" t="n">
         <f aca="false">A47-$C$52</f>
         <v>1.25</v>
       </c>
@@ -1745,11 +1768,11 @@
       <c r="B48" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C48" s="5" t="n">
+      <c r="C48" s="3" t="n">
         <f aca="false">A48*B48</f>
         <v>100</v>
       </c>
-      <c r="D48" s="5" t="n">
+      <c r="D48" s="3" t="n">
         <f aca="false">A48-$C$52</f>
         <v>2.25</v>
       </c>
@@ -1775,11 +1798,11 @@
       <c r="B49" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C49" s="5" t="n">
+      <c r="C49" s="3" t="n">
         <f aca="false">A49*B49</f>
         <v>90</v>
       </c>
-      <c r="D49" s="5" t="n">
+      <c r="D49" s="3" t="n">
         <f aca="false">A49-$C$52</f>
         <v>7.25</v>
       </c>
@@ -1799,72 +1822,72 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="5" t="n">
         <f aca="false">SUM(B44:B49)</f>
         <v>20</v>
       </c>
-      <c r="C50" s="4" t="n">
+      <c r="C50" s="5" t="n">
         <f aca="false">SUM(C44:C49)</f>
         <v>455</v>
       </c>
-      <c r="F50" s="4" t="n">
+      <c r="F50" s="5" t="n">
         <f aca="false">SUM(F44:F49)</f>
         <v>319.75</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="5" t="n">
+      <c r="C52" s="3" t="n">
         <f aca="false">C50/B50</f>
         <v>22.75</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="8" t="n">
         <f aca="false">F50/B50</f>
         <v>15.9875</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="H52" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="10" t="n">
+      <c r="I52" s="9" t="n">
         <f aca="false">(F53/C52)*100</f>
         <v>17.5755481085932</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="11" t="n">
+      <c r="F53" s="10" t="n">
         <f aca="false">F52^(1/2)</f>
         <v>3.99843719470495</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H55" s="1" t="s">
@@ -1881,11 +1904,11 @@
       <c r="B56" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C56" s="5" t="n">
+      <c r="C56" s="3" t="n">
         <f aca="false">A56*B56</f>
         <v>0</v>
       </c>
-      <c r="D56" s="5" t="n">
+      <c r="D56" s="3" t="n">
         <f aca="false">A56-$C$69</f>
         <v>-6.46</v>
       </c>
@@ -1911,11 +1934,11 @@
       <c r="B57" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C57" s="5" t="n">
+      <c r="C57" s="3" t="n">
         <f aca="false">A57*B57</f>
         <v>2</v>
       </c>
-      <c r="D57" s="5" t="n">
+      <c r="D57" s="3" t="n">
         <f aca="false">A57-$C$69</f>
         <v>-5.46</v>
       </c>
@@ -1941,11 +1964,11 @@
       <c r="B58" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C58" s="5" t="n">
+      <c r="C58" s="3" t="n">
         <f aca="false">A58*B58</f>
         <v>6</v>
       </c>
-      <c r="D58" s="5" t="n">
+      <c r="D58" s="3" t="n">
         <f aca="false">A58-$C$69</f>
         <v>-4.46</v>
       </c>
@@ -1971,11 +1994,11 @@
       <c r="B59" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C59" s="5" t="n">
+      <c r="C59" s="3" t="n">
         <f aca="false">A59*B59</f>
         <v>6</v>
       </c>
-      <c r="D59" s="5" t="n">
+      <c r="D59" s="3" t="n">
         <f aca="false">A59-$C$69</f>
         <v>-3.46</v>
       </c>
@@ -2001,11 +2024,11 @@
       <c r="B60" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C60" s="5" t="n">
+      <c r="C60" s="3" t="n">
         <f aca="false">A60*B60</f>
         <v>4</v>
       </c>
-      <c r="D60" s="5" t="n">
+      <c r="D60" s="3" t="n">
         <f aca="false">A60-$C$69</f>
         <v>-2.46</v>
       </c>
@@ -2031,11 +2054,11 @@
       <c r="B61" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C61" s="5" t="n">
+      <c r="C61" s="3" t="n">
         <f aca="false">A61*B61</f>
         <v>15</v>
       </c>
-      <c r="D61" s="5" t="n">
+      <c r="D61" s="3" t="n">
         <f aca="false">A61-$C$69</f>
         <v>-1.46</v>
       </c>
@@ -2061,11 +2084,11 @@
       <c r="B62" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C62" s="5" t="n">
+      <c r="C62" s="3" t="n">
         <f aca="false">A62*B62</f>
         <v>30</v>
       </c>
-      <c r="D62" s="5" t="n">
+      <c r="D62" s="3" t="n">
         <f aca="false">A62-$C$69</f>
         <v>-0.46</v>
       </c>
@@ -2091,11 +2114,11 @@
       <c r="B63" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C63" s="5" t="n">
+      <c r="C63" s="3" t="n">
         <f aca="false">A63*B63</f>
         <v>56</v>
       </c>
-      <c r="D63" s="5" t="n">
+      <c r="D63" s="3" t="n">
         <f aca="false">A63-$C$69</f>
         <v>0.54</v>
       </c>
@@ -2121,11 +2144,11 @@
       <c r="B64" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C64" s="5" t="n">
+      <c r="C64" s="3" t="n">
         <f aca="false">A64*B64</f>
         <v>72</v>
       </c>
-      <c r="D64" s="5" t="n">
+      <c r="D64" s="3" t="n">
         <f aca="false">A64-$C$69</f>
         <v>1.54</v>
       </c>
@@ -2151,11 +2174,11 @@
       <c r="B65" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C65" s="5" t="n">
+      <c r="C65" s="3" t="n">
         <f aca="false">A65*B65</f>
         <v>72</v>
       </c>
-      <c r="D65" s="5" t="n">
+      <c r="D65" s="3" t="n">
         <f aca="false">A65-$C$69</f>
         <v>2.54</v>
       </c>
@@ -2181,11 +2204,11 @@
       <c r="B66" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C66" s="5" t="n">
+      <c r="C66" s="3" t="n">
         <f aca="false">A66*B66</f>
         <v>60</v>
       </c>
-      <c r="D66" s="5" t="n">
+      <c r="D66" s="3" t="n">
         <f aca="false">A66-$C$69</f>
         <v>3.54</v>
       </c>
@@ -2205,78 +2228,78 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="5" t="n">
         <f aca="false">SUM(B56:B66)</f>
         <v>50</v>
       </c>
-      <c r="C67" s="4" t="n">
+      <c r="C67" s="5" t="n">
         <f aca="false">SUM(C56:C66)</f>
         <v>323</v>
       </c>
-      <c r="F67" s="4" t="n">
+      <c r="F67" s="5" t="n">
         <f aca="false">SUM(F56:F66)</f>
         <v>432.42</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="5" t="n">
+      <c r="C69" s="3" t="n">
         <f aca="false">C67/B67</f>
         <v>6.46</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="8" t="n">
         <f aca="false">F67/B67</f>
         <v>8.6484</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="H69" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I69" s="10" t="n">
+      <c r="I69" s="9" t="n">
         <f aca="false">(F70/C69)*100</f>
         <v>45.5234707930435</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="11" t="n">
+      <c r="F70" s="10" t="n">
         <f aca="false">F69^(1/2)</f>
         <v>2.94081621323061</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
       <c r="E74" s="6"/>
       <c r="F74" s="7"/>
       <c r="H74" s="1"/>
@@ -2285,8 +2308,8 @@
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
       <c r="E75" s="6"/>
       <c r="F75" s="7"/>
       <c r="H75" s="1"/>
@@ -2295,8 +2318,8 @@
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
       <c r="E76" s="6"/>
       <c r="F76" s="7"/>
       <c r="H76" s="1"/>
@@ -2305,8 +2328,8 @@
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
       <c r="E77" s="6"/>
       <c r="F77" s="7"/>
       <c r="H77" s="1"/>
@@ -2315,8 +2338,8 @@
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
       <c r="E78" s="6"/>
       <c r="F78" s="7"/>
       <c r="H78" s="1"/>
@@ -2325,8 +2348,8 @@
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
       <c r="E79" s="6"/>
       <c r="F79" s="7"/>
       <c r="H79" s="1"/>
@@ -2335,8 +2358,8 @@
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
       <c r="E80" s="6"/>
       <c r="F80" s="7"/>
       <c r="H80" s="1"/>
@@ -2345,8 +2368,8 @@
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
       <c r="E81" s="6"/>
       <c r="F81" s="7"/>
       <c r="H81" s="1"/>
@@ -2355,8 +2378,8 @@
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
       <c r="E82" s="6"/>
       <c r="F82" s="7"/>
       <c r="H82" s="1"/>
@@ -2365,8 +2388,8 @@
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
       <c r="E83" s="6"/>
       <c r="F83" s="7"/>
       <c r="H83" s="1"/>
@@ -2375,30 +2398,30 @@
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
       <c r="E84" s="6"/>
       <c r="F84" s="7"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="F85" s="4"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="F85" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="E87" s="5"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="E87" s="3"/>
       <c r="F87" s="8"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="10"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="9"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E88" s="5"/>
-      <c r="F88" s="11"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2419,1238 +2442,2225 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M41" activeCellId="0" sqref="M41"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H113" activeCellId="0" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="11.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="13.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="8.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="9.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="5" width="13.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="8.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="9.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="3" width="13.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="3" t="n">
         <f aca="false">AVERAGE(A3:B3)</f>
         <v>18.5</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="3" t="n">
         <f aca="false">D3*C3</f>
         <v>185</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="3" t="n">
         <f aca="false">D3-$D$12</f>
         <v>-7.8</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="3" t="n">
         <f aca="false">F3^2</f>
         <v>60.84</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="3" t="n">
         <f aca="false">G3*C3</f>
         <v>608.4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="3" t="n">
         <f aca="false">AVERAGE(A4:B4)</f>
         <v>21.5</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="3" t="n">
         <f aca="false">D4*C4</f>
         <v>172</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="3" t="n">
         <f aca="false">D4-$D$12</f>
         <v>-4.8</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="3" t="n">
         <f aca="false">F4^2</f>
         <v>23.04</v>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="3" t="n">
         <f aca="false">G4*C4</f>
         <v>184.32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="3" t="n">
         <f aca="false">AVERAGE(A5:B5)</f>
         <v>24.5</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="3" t="n">
         <f aca="false">D5*C5</f>
         <v>196</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="3" t="n">
         <f aca="false">D5-$D$12</f>
         <v>-1.8</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="3" t="n">
         <f aca="false">F5^2</f>
         <v>3.24</v>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="3" t="n">
         <f aca="false">G5*C5</f>
         <v>25.92</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="3" t="n">
         <f aca="false">AVERAGE(A6:B6)</f>
         <v>27.5</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="3" t="n">
         <f aca="false">D6*C6</f>
         <v>192.5</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="3" t="n">
         <f aca="false">D6-$D$12</f>
         <v>1.2</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="3" t="n">
         <f aca="false">F6^2</f>
         <v>1.44</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="3" t="n">
         <f aca="false">G6*C6</f>
         <v>10.08</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="3" t="n">
         <f aca="false">AVERAGE(A7:B7)</f>
         <v>30.5</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="3" t="n">
         <f aca="false">D7*C7</f>
         <v>183</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="3" t="n">
         <f aca="false">D7-$D$12</f>
         <v>4.2</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="3" t="n">
         <f aca="false">F7^2</f>
         <v>17.64</v>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="3" t="n">
         <f aca="false">G7*C7</f>
         <v>105.84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="3" t="n">
         <f aca="false">AVERAGE(A8:B8)</f>
         <v>33.5</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="3" t="n">
         <f aca="false">D8*C8</f>
         <v>167.5</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="3" t="n">
         <f aca="false">D8-$D$12</f>
         <v>7.2</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="3" t="n">
         <f aca="false">F8^2</f>
         <v>51.84</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="3" t="n">
         <f aca="false">G8*C8</f>
         <v>259.2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="3" t="n">
         <f aca="false">AVERAGE(A9:B9)</f>
         <v>36.5</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="3" t="n">
         <f aca="false">D9*C9</f>
         <v>219</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="3" t="n">
         <f aca="false">D9-$D$12</f>
         <v>10.2</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="3" t="n">
         <f aca="false">F9^2</f>
         <v>104.04</v>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="3" t="n">
         <f aca="false">G9*C9</f>
         <v>624.24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="n">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="n">
         <f aca="false">SUM(C3:C9)</f>
         <v>50</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="n">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="n">
         <f aca="false">SUM(E3:E9)</f>
         <v>1315</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="H10" s="4" t="n">
+      <c r="F10" s="5"/>
+      <c r="H10" s="5" t="n">
         <f aca="false">SUM(H3:H9)</f>
         <v>1818</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="13" t="n">
+      <c r="D12" s="9" t="n">
         <f aca="false">E10/C10</f>
         <v>26.3</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="15" t="n">
+      <c r="G12" s="13" t="n">
         <f aca="false">D14/D12</f>
         <v>0.229274728998955</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="13" t="n">
+      <c r="D13" s="9" t="n">
         <f aca="false">H10/C10</f>
         <v>36.36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="13" t="n">
+      <c r="D14" s="9" t="n">
         <f aca="false">D13^(1/2)</f>
         <v>6.02992537267253</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="4"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="n">
+      <c r="A19" s="15" t="n">
         <v>501</v>
       </c>
-      <c r="B19" s="17" t="n">
+      <c r="B19" s="15" t="n">
         <v>526</v>
       </c>
-      <c r="C19" s="17" t="n">
+      <c r="C19" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D19" s="18" t="n">
+      <c r="D19" s="16" t="n">
         <f aca="false">AVERAGE(A19:B19)</f>
         <v>513.5</v>
       </c>
-      <c r="E19" s="18" t="n">
+      <c r="E19" s="16" t="n">
         <f aca="false">D19*C19</f>
         <v>2054</v>
       </c>
-      <c r="F19" s="18" t="n">
+      <c r="F19" s="16" t="n">
         <f aca="false">D19-$D$27</f>
         <v>-71.875</v>
       </c>
-      <c r="G19" s="18" t="n">
+      <c r="G19" s="16" t="n">
         <f aca="false">F19^2</f>
         <v>5166.015625</v>
       </c>
-      <c r="H19" s="18" t="n">
+      <c r="H19" s="16" t="n">
         <f aca="false">G19*C19</f>
         <v>20664.0625</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="n">
+      <c r="A20" s="15" t="n">
         <v>526</v>
       </c>
-      <c r="B20" s="17" t="n">
+      <c r="B20" s="15" t="n">
         <v>551</v>
       </c>
-      <c r="C20" s="17" t="n">
+      <c r="C20" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="D20" s="18" t="n">
+      <c r="D20" s="16" t="n">
         <f aca="false">AVERAGE(A20:B20)</f>
         <v>538.5</v>
       </c>
-      <c r="E20" s="18" t="n">
+      <c r="E20" s="16" t="n">
         <f aca="false">D20*C20</f>
         <v>1615.5</v>
       </c>
-      <c r="F20" s="18" t="n">
+      <c r="F20" s="16" t="n">
         <f aca="false">D20-$D$27</f>
         <v>-46.875</v>
       </c>
-      <c r="G20" s="18" t="n">
+      <c r="G20" s="16" t="n">
         <f aca="false">F20^2</f>
         <v>2197.265625</v>
       </c>
-      <c r="H20" s="18" t="n">
+      <c r="H20" s="16" t="n">
         <f aca="false">G20*C20</f>
         <v>6591.796875</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="n">
+      <c r="A21" s="15" t="n">
         <v>551</v>
       </c>
-      <c r="B21" s="17" t="n">
+      <c r="B21" s="15" t="n">
         <v>576</v>
       </c>
-      <c r="C21" s="17" t="n">
+      <c r="C21" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="D21" s="18" t="n">
+      <c r="D21" s="16" t="n">
         <f aca="false">AVERAGE(A21:B21)</f>
         <v>563.5</v>
       </c>
-      <c r="E21" s="18" t="n">
+      <c r="E21" s="16" t="n">
         <f aca="false">D21*C21</f>
         <v>1690.5</v>
       </c>
-      <c r="F21" s="18" t="n">
+      <c r="F21" s="16" t="n">
         <f aca="false">D21-$D$27</f>
         <v>-21.875</v>
       </c>
-      <c r="G21" s="18" t="n">
+      <c r="G21" s="16" t="n">
         <f aca="false">F21^2</f>
         <v>478.515625</v>
       </c>
-      <c r="H21" s="18" t="n">
+      <c r="H21" s="16" t="n">
         <f aca="false">G21*C21</f>
         <v>1435.546875</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="n">
+      <c r="A22" s="15" t="n">
         <v>576</v>
       </c>
-      <c r="B22" s="17" t="n">
+      <c r="B22" s="15" t="n">
         <v>601</v>
       </c>
-      <c r="C22" s="17" t="n">
+      <c r="C22" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="D22" s="18" t="n">
+      <c r="D22" s="16" t="n">
         <f aca="false">AVERAGE(A22:B22)</f>
         <v>588.5</v>
       </c>
-      <c r="E22" s="18" t="n">
+      <c r="E22" s="16" t="n">
         <f aca="false">D22*C22</f>
         <v>1177</v>
       </c>
-      <c r="F22" s="18" t="n">
+      <c r="F22" s="16" t="n">
         <f aca="false">D22-$D$27</f>
         <v>3.125</v>
       </c>
-      <c r="G22" s="18" t="n">
+      <c r="G22" s="16" t="n">
         <f aca="false">F22^2</f>
         <v>9.765625</v>
       </c>
-      <c r="H22" s="18" t="n">
+      <c r="H22" s="16" t="n">
         <f aca="false">G22*C22</f>
         <v>19.53125</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="n">
+      <c r="A23" s="15" t="n">
         <v>601</v>
       </c>
-      <c r="B23" s="17" t="n">
+      <c r="B23" s="15" t="n">
         <v>626</v>
       </c>
-      <c r="C23" s="17" t="n">
+      <c r="C23" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="D23" s="18" t="n">
+      <c r="D23" s="16" t="n">
         <f aca="false">AVERAGE(A23:B23)</f>
         <v>613.5</v>
       </c>
-      <c r="E23" s="18" t="n">
+      <c r="E23" s="16" t="n">
         <f aca="false">D23*C23</f>
         <v>3681</v>
       </c>
-      <c r="F23" s="18" t="n">
+      <c r="F23" s="16" t="n">
         <f aca="false">D23-$D$27</f>
         <v>28.125</v>
       </c>
-      <c r="G23" s="18" t="n">
+      <c r="G23" s="16" t="n">
         <f aca="false">F23^2</f>
         <v>791.015625</v>
       </c>
-      <c r="H23" s="18" t="n">
+      <c r="H23" s="16" t="n">
         <f aca="false">G23*C23</f>
         <v>4746.09375</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="n">
+      <c r="A24" s="15" t="n">
         <v>626</v>
       </c>
-      <c r="B24" s="17" t="n">
+      <c r="B24" s="15" t="n">
         <v>651</v>
       </c>
-      <c r="C24" s="17" t="n">
+      <c r="C24" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="D24" s="18" t="n">
+      <c r="D24" s="16" t="n">
         <f aca="false">AVERAGE(A24:B24)</f>
         <v>638.5</v>
       </c>
-      <c r="E24" s="18" t="n">
+      <c r="E24" s="16" t="n">
         <f aca="false">D24*C24</f>
         <v>3831</v>
       </c>
-      <c r="F24" s="18" t="n">
+      <c r="F24" s="16" t="n">
         <f aca="false">D24-$D$27</f>
         <v>53.125</v>
       </c>
-      <c r="G24" s="18" t="n">
+      <c r="G24" s="16" t="n">
         <f aca="false">F24^2</f>
         <v>2822.265625</v>
       </c>
-      <c r="H24" s="18" t="n">
+      <c r="H24" s="16" t="n">
         <f aca="false">G24*C24</f>
         <v>16933.59375</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="19" t="n">
+      <c r="B25" s="18"/>
+      <c r="C25" s="17" t="n">
         <f aca="false">SUM(C19:C24)</f>
         <v>24</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22" t="n">
+      <c r="D25" s="19"/>
+      <c r="E25" s="20" t="n">
         <f aca="false">SUM(E19:E24)</f>
         <v>14049</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="22" t="n">
+      <c r="F25" s="19"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="20" t="n">
         <f aca="false">SUM(H19:H24)</f>
         <v>50390.625</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="24" t="n">
+      <c r="D27" s="22" t="n">
         <f aca="false">E25/C25</f>
         <v>585.375</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="15" t="n">
+      <c r="G27" s="13" t="n">
         <f aca="false">D29/D27</f>
         <v>0.0782771636697372</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="24" t="n">
+      <c r="D28" s="22" t="n">
         <f aca="false">H25/C25</f>
         <v>2099.609375</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="24" t="n">
+      <c r="D29" s="22" t="n">
         <f aca="false">D28^(1/2)</f>
         <v>45.8214946831724</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17" t="n">
+      <c r="A34" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="B34" s="17" t="n">
+      <c r="B34" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C34" s="17" t="n">
+      <c r="C34" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="D34" s="18" t="n">
+      <c r="D34" s="16" t="n">
         <f aca="false">AVERAGE(A34:B34)</f>
         <v>0.5</v>
       </c>
-      <c r="E34" s="18" t="n">
+      <c r="E34" s="16" t="n">
         <f aca="false">D34*C34</f>
         <v>1</v>
       </c>
-      <c r="F34" s="18" t="n">
+      <c r="F34" s="16" t="n">
         <f aca="false">D34-$D$43</f>
         <v>-2.8</v>
       </c>
-      <c r="G34" s="18" t="n">
+      <c r="G34" s="16" t="n">
         <f aca="false">F34^2</f>
         <v>7.84</v>
       </c>
-      <c r="H34" s="18" t="n">
+      <c r="H34" s="16" t="n">
         <f aca="false">G34*C34</f>
         <v>15.68</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17" t="n">
+      <c r="A35" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="B35" s="17" t="n">
+      <c r="B35" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C35" s="17" t="n">
+      <c r="C35" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="D35" s="18" t="n">
+      <c r="D35" s="16" t="n">
         <f aca="false">AVERAGE(A35:B35)</f>
         <v>1.5</v>
       </c>
-      <c r="E35" s="18" t="n">
+      <c r="E35" s="16" t="n">
         <f aca="false">D35*C35</f>
         <v>13.5</v>
       </c>
-      <c r="F35" s="18" t="n">
+      <c r="F35" s="16" t="n">
         <f aca="false">D35-$D$43</f>
         <v>-1.8</v>
       </c>
-      <c r="G35" s="18" t="n">
+      <c r="G35" s="16" t="n">
         <f aca="false">F35^2</f>
         <v>3.24</v>
       </c>
-      <c r="H35" s="18" t="n">
+      <c r="H35" s="16" t="n">
         <f aca="false">G35*C35</f>
         <v>29.16</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="n">
+      <c r="A36" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="B36" s="17" t="n">
+      <c r="B36" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C36" s="17" t="n">
+      <c r="C36" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="D36" s="18" t="n">
+      <c r="D36" s="16" t="n">
         <f aca="false">AVERAGE(A36:B36)</f>
         <v>2.5</v>
       </c>
-      <c r="E36" s="18" t="n">
+      <c r="E36" s="16" t="n">
         <f aca="false">D36*C36</f>
         <v>30</v>
       </c>
-      <c r="F36" s="18" t="n">
+      <c r="F36" s="16" t="n">
         <f aca="false">D36-$D$43</f>
         <v>-0.8</v>
       </c>
-      <c r="G36" s="18" t="n">
+      <c r="G36" s="16" t="n">
         <f aca="false">F36^2</f>
         <v>0.64</v>
       </c>
-      <c r="H36" s="18" t="n">
+      <c r="H36" s="16" t="n">
         <f aca="false">G36*C36</f>
         <v>7.68</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17" t="n">
+      <c r="A37" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="B37" s="17" t="n">
+      <c r="B37" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="C37" s="17" t="n">
+      <c r="C37" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="D37" s="18" t="n">
+      <c r="D37" s="16" t="n">
         <f aca="false">AVERAGE(A37:B37)</f>
         <v>3.5</v>
       </c>
-      <c r="E37" s="18" t="n">
+      <c r="E37" s="16" t="n">
         <f aca="false">D37*C37</f>
         <v>38.5</v>
       </c>
-      <c r="F37" s="18" t="n">
+      <c r="F37" s="16" t="n">
         <f aca="false">D37-$D$43</f>
         <v>0.2</v>
       </c>
-      <c r="G37" s="18" t="n">
+      <c r="G37" s="16" t="n">
         <f aca="false">F37^2</f>
         <v>0.0400000000000001</v>
       </c>
-      <c r="H37" s="18" t="n">
+      <c r="H37" s="16" t="n">
         <f aca="false">G37*C37</f>
         <v>0.440000000000001</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17" t="n">
+      <c r="A38" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="B38" s="17" t="n">
+      <c r="B38" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="C38" s="17" t="n">
+      <c r="C38" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="D38" s="18" t="n">
+      <c r="D38" s="16" t="n">
         <f aca="false">AVERAGE(A38:B38)</f>
         <v>4.5</v>
       </c>
-      <c r="E38" s="18" t="n">
+      <c r="E38" s="16" t="n">
         <f aca="false">D38*C38</f>
         <v>40.5</v>
       </c>
-      <c r="F38" s="18" t="n">
+      <c r="F38" s="16" t="n">
         <f aca="false">D38-$D$43</f>
         <v>1.2</v>
       </c>
-      <c r="G38" s="18" t="n">
+      <c r="G38" s="16" t="n">
         <f aca="false">F38^2</f>
         <v>1.44</v>
       </c>
-      <c r="H38" s="18" t="n">
+      <c r="H38" s="16" t="n">
         <f aca="false">G38*C38</f>
         <v>12.96</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17" t="n">
+      <c r="A39" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="B39" s="17" t="n">
+      <c r="B39" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="C39" s="17" t="n">
+      <c r="C39" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D39" s="18" t="n">
+      <c r="D39" s="16" t="n">
         <f aca="false">AVERAGE(A39:B39)</f>
         <v>5.5</v>
       </c>
-      <c r="E39" s="18" t="n">
+      <c r="E39" s="16" t="n">
         <f aca="false">D39*C39</f>
         <v>22</v>
       </c>
-      <c r="F39" s="18" t="n">
+      <c r="F39" s="16" t="n">
         <f aca="false">D39-$D$43</f>
         <v>2.2</v>
       </c>
-      <c r="G39" s="18" t="n">
+      <c r="G39" s="16" t="n">
         <f aca="false">F39^2</f>
         <v>4.84</v>
       </c>
-      <c r="H39" s="18" t="n">
+      <c r="H39" s="16" t="n">
         <f aca="false">G39*C39</f>
         <v>19.36</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="17" t="n">
+      <c r="A40" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="B40" s="17" t="n">
+      <c r="B40" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="C40" s="17" t="n">
+      <c r="C40" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="D40" s="18" t="n">
+      <c r="D40" s="16" t="n">
         <f aca="false">AVERAGE(A40:B40)</f>
         <v>6.5</v>
       </c>
-      <c r="E40" s="18" t="n">
+      <c r="E40" s="16" t="n">
         <f aca="false">D40*C40</f>
         <v>19.5</v>
       </c>
-      <c r="F40" s="18" t="n">
+      <c r="F40" s="16" t="n">
         <f aca="false">D40-$D$43</f>
         <v>3.2</v>
       </c>
-      <c r="G40" s="18" t="n">
+      <c r="G40" s="16" t="n">
         <f aca="false">F40^2</f>
         <v>10.24</v>
       </c>
-      <c r="H40" s="18" t="n">
+      <c r="H40" s="16" t="n">
         <f aca="false">G40*C40</f>
         <v>30.72</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="19" t="n">
+      <c r="B41" s="18"/>
+      <c r="C41" s="17" t="n">
         <f aca="false">SUM(C34:C40)</f>
         <v>50</v>
       </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22" t="n">
+      <c r="D41" s="19"/>
+      <c r="E41" s="20" t="n">
         <f aca="false">SUM(E34:E40)</f>
         <v>165</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="22" t="n">
+      <c r="F41" s="19"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="20" t="n">
         <f aca="false">SUM(H34:H40)</f>
         <v>116</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="24" t="n">
+      <c r="D43" s="22" t="n">
         <f aca="false">E41/C41</f>
         <v>3.3</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G43" s="15" t="n">
+      <c r="G43" s="13" t="n">
         <f aca="false">D45/D43</f>
         <v>0.461562006415994</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="24" t="n">
+      <c r="D44" s="22" t="n">
         <f aca="false">H41/C41</f>
         <v>2.32</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="24" t="n">
+      <c r="D45" s="22" t="n">
         <f aca="false">D44^(1/2)</f>
         <v>1.52315462117278</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H48" s="14" t="s">
+      <c r="H48" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="17" t="n">
+      <c r="A49" s="15" t="n">
         <v>17</v>
       </c>
-      <c r="B49" s="17" t="n">
+      <c r="B49" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="C49" s="17" t="n">
+      <c r="C49" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="D49" s="18" t="n">
+      <c r="D49" s="16" t="n">
         <f aca="false">AVERAGE(A49:B49)</f>
         <v>18.5</v>
       </c>
-      <c r="E49" s="18" t="n">
+      <c r="E49" s="16" t="n">
         <f aca="false">D49*C49</f>
         <v>185</v>
       </c>
-      <c r="F49" s="18" t="n">
+      <c r="F49" s="16" t="n">
         <f aca="false">D49-$D$58</f>
         <v>-7.8</v>
       </c>
-      <c r="G49" s="18" t="n">
+      <c r="G49" s="16" t="n">
         <f aca="false">F49^2</f>
         <v>60.84</v>
       </c>
-      <c r="H49" s="18" t="n">
+      <c r="H49" s="16" t="n">
         <f aca="false">G49*C49</f>
         <v>608.4</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="17" t="n">
+      <c r="A50" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="B50" s="17" t="n">
+      <c r="B50" s="15" t="n">
         <v>23</v>
       </c>
-      <c r="C50" s="17" t="n">
+      <c r="C50" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="D50" s="18" t="n">
+      <c r="D50" s="16" t="n">
         <f aca="false">AVERAGE(A50:B50)</f>
         <v>21.5</v>
       </c>
-      <c r="E50" s="18" t="n">
+      <c r="E50" s="16" t="n">
         <f aca="false">D50*C50</f>
         <v>172</v>
       </c>
-      <c r="F50" s="18" t="n">
+      <c r="F50" s="16" t="n">
         <f aca="false">D50-$D$58</f>
         <v>-4.8</v>
       </c>
-      <c r="G50" s="18" t="n">
+      <c r="G50" s="16" t="n">
         <f aca="false">F50^2</f>
         <v>23.04</v>
       </c>
-      <c r="H50" s="18" t="n">
+      <c r="H50" s="16" t="n">
         <f aca="false">G50*C50</f>
         <v>184.32</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="17" t="n">
+      <c r="A51" s="15" t="n">
         <v>23</v>
       </c>
-      <c r="B51" s="17" t="n">
+      <c r="B51" s="15" t="n">
         <v>26</v>
       </c>
-      <c r="C51" s="17" t="n">
+      <c r="C51" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="D51" s="18" t="n">
+      <c r="D51" s="16" t="n">
         <f aca="false">AVERAGE(A51:B51)</f>
         <v>24.5</v>
       </c>
-      <c r="E51" s="18" t="n">
+      <c r="E51" s="16" t="n">
         <f aca="false">D51*C51</f>
         <v>196</v>
       </c>
-      <c r="F51" s="18" t="n">
+      <c r="F51" s="16" t="n">
         <f aca="false">D51-$D$58</f>
         <v>-1.8</v>
       </c>
-      <c r="G51" s="18" t="n">
+      <c r="G51" s="16" t="n">
         <f aca="false">F51^2</f>
         <v>3.24</v>
       </c>
-      <c r="H51" s="18" t="n">
+      <c r="H51" s="16" t="n">
         <f aca="false">G51*C51</f>
         <v>25.92</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="17" t="n">
+      <c r="A52" s="15" t="n">
         <v>26</v>
       </c>
-      <c r="B52" s="17" t="n">
+      <c r="B52" s="15" t="n">
         <v>29</v>
       </c>
-      <c r="C52" s="17" t="n">
+      <c r="C52" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="D52" s="18" t="n">
+      <c r="D52" s="16" t="n">
         <f aca="false">AVERAGE(A52:B52)</f>
         <v>27.5</v>
       </c>
-      <c r="E52" s="18" t="n">
+      <c r="E52" s="16" t="n">
         <f aca="false">D52*C52</f>
         <v>192.5</v>
       </c>
-      <c r="F52" s="18" t="n">
+      <c r="F52" s="16" t="n">
         <f aca="false">D52-$D$58</f>
         <v>1.2</v>
       </c>
-      <c r="G52" s="18" t="n">
+      <c r="G52" s="16" t="n">
         <f aca="false">F52^2</f>
         <v>1.44</v>
       </c>
-      <c r="H52" s="18" t="n">
+      <c r="H52" s="16" t="n">
         <f aca="false">G52*C52</f>
         <v>10.08</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="17" t="n">
+      <c r="A53" s="15" t="n">
         <v>29</v>
       </c>
-      <c r="B53" s="17" t="n">
+      <c r="B53" s="15" t="n">
         <v>32</v>
       </c>
-      <c r="C53" s="17" t="n">
+      <c r="C53" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="D53" s="18" t="n">
+      <c r="D53" s="16" t="n">
         <f aca="false">AVERAGE(A53:B53)</f>
         <v>30.5</v>
       </c>
-      <c r="E53" s="18" t="n">
+      <c r="E53" s="16" t="n">
         <f aca="false">D53*C53</f>
         <v>183</v>
       </c>
-      <c r="F53" s="18" t="n">
+      <c r="F53" s="16" t="n">
         <f aca="false">D53-$D$58</f>
         <v>4.2</v>
       </c>
-      <c r="G53" s="18" t="n">
+      <c r="G53" s="16" t="n">
         <f aca="false">F53^2</f>
         <v>17.64</v>
       </c>
-      <c r="H53" s="18" t="n">
+      <c r="H53" s="16" t="n">
         <f aca="false">G53*C53</f>
         <v>105.84</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="17" t="n">
+      <c r="A54" s="15" t="n">
         <v>32</v>
       </c>
-      <c r="B54" s="17" t="n">
+      <c r="B54" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="C54" s="17" t="n">
+      <c r="C54" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="D54" s="18" t="n">
+      <c r="D54" s="16" t="n">
         <f aca="false">AVERAGE(A54:B54)</f>
         <v>33.5</v>
       </c>
-      <c r="E54" s="18" t="n">
+      <c r="E54" s="16" t="n">
         <f aca="false">D54*C54</f>
         <v>167.5</v>
       </c>
-      <c r="F54" s="18" t="n">
+      <c r="F54" s="16" t="n">
         <f aca="false">D54-$D$58</f>
         <v>7.2</v>
       </c>
-      <c r="G54" s="18" t="n">
+      <c r="G54" s="16" t="n">
         <f aca="false">F54^2</f>
         <v>51.84</v>
       </c>
-      <c r="H54" s="18" t="n">
+      <c r="H54" s="16" t="n">
         <f aca="false">G54*C54</f>
         <v>259.2</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="17" t="n">
+      <c r="A55" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="B55" s="17" t="n">
+      <c r="B55" s="15" t="n">
         <v>38</v>
       </c>
-      <c r="C55" s="17" t="n">
+      <c r="C55" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="D55" s="18" t="n">
+      <c r="D55" s="16" t="n">
         <f aca="false">AVERAGE(A55:B55)</f>
         <v>36.5</v>
       </c>
-      <c r="E55" s="18" t="n">
+      <c r="E55" s="16" t="n">
         <f aca="false">D55*C55</f>
         <v>219</v>
       </c>
-      <c r="F55" s="18" t="n">
+      <c r="F55" s="16" t="n">
         <f aca="false">D55-$D$58</f>
         <v>10.2</v>
       </c>
-      <c r="G55" s="18" t="n">
+      <c r="G55" s="16" t="n">
         <f aca="false">F55^2</f>
         <v>104.04</v>
       </c>
-      <c r="H55" s="18" t="n">
+      <c r="H55" s="16" t="n">
         <f aca="false">G55*C55</f>
         <v>624.24</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="19" t="n">
+      <c r="B56" s="18"/>
+      <c r="C56" s="17" t="n">
         <f aca="false">SUM(C49:C55)</f>
         <v>50</v>
       </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="22" t="n">
+      <c r="D56" s="19"/>
+      <c r="E56" s="20" t="n">
         <f aca="false">SUM(E49:E55)</f>
         <v>1315</v>
       </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="22" t="n">
+      <c r="F56" s="19"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="20" t="n">
         <f aca="false">SUM(H49:H55)</f>
         <v>1818</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="24" t="n">
+      <c r="D58" s="22" t="n">
         <f aca="false">E56/C56</f>
         <v>26.3</v>
       </c>
-      <c r="F58" s="14" t="s">
+      <c r="F58" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G58" s="15" t="n">
+      <c r="G58" s="13" t="n">
         <f aca="false">D60/D58</f>
         <v>0.229274728998956</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D59" s="24" t="n">
+      <c r="D59" s="22" t="n">
         <f aca="false">H56/C56</f>
         <v>36.36</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D60" s="24" t="n">
+      <c r="D60" s="22" t="n">
         <f aca="false">D59^(1/2)</f>
         <v>6.02992537267253</v>
       </c>
     </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="J63" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J64" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K64" s="23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B65" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C65" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D65" s="16" t="n">
+        <f aca="false">AVERAGE(A65:B65)</f>
+        <v>15</v>
+      </c>
+      <c r="E65" s="16" t="n">
+        <f aca="false">D65*C65</f>
+        <v>75</v>
+      </c>
+      <c r="F65" s="16" t="n">
+        <f aca="false">D65-$D$73</f>
+        <v>-9.4</v>
+      </c>
+      <c r="G65" s="16" t="n">
+        <f aca="false">F65^2</f>
+        <v>88.36</v>
+      </c>
+      <c r="H65" s="16" t="n">
+        <f aca="false">G65*C65</f>
+        <v>441.8</v>
+      </c>
+      <c r="J65" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K65" s="23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="B66" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="C66" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D66" s="16" t="n">
+        <f aca="false">AVERAGE(A66:B66)</f>
+        <v>19</v>
+      </c>
+      <c r="E66" s="16" t="n">
+        <f aca="false">D66*C66</f>
+        <v>57</v>
+      </c>
+      <c r="F66" s="16" t="n">
+        <f aca="false">D66-$D$73</f>
+        <v>-5.4</v>
+      </c>
+      <c r="G66" s="16" t="n">
+        <f aca="false">F66^2</f>
+        <v>29.16</v>
+      </c>
+      <c r="H66" s="16" t="n">
+        <f aca="false">G66*C66</f>
+        <v>87.48</v>
+      </c>
+      <c r="J66" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K66" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="B67" s="15" t="n">
+        <v>25</v>
+      </c>
+      <c r="C67" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" s="16" t="n">
+        <f aca="false">AVERAGE(A67:B67)</f>
+        <v>23</v>
+      </c>
+      <c r="E67" s="16" t="n">
+        <f aca="false">D67*C67</f>
+        <v>46</v>
+      </c>
+      <c r="F67" s="16" t="n">
+        <f aca="false">D67-$D$73</f>
+        <v>-1.4</v>
+      </c>
+      <c r="G67" s="16" t="n">
+        <f aca="false">F67^2</f>
+        <v>1.96</v>
+      </c>
+      <c r="H67" s="16" t="n">
+        <f aca="false">G67*C67</f>
+        <v>3.91999999999999</v>
+      </c>
+      <c r="J67" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K67" s="23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="15" t="n">
+        <v>25</v>
+      </c>
+      <c r="B68" s="15" t="n">
+        <v>29</v>
+      </c>
+      <c r="C68" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D68" s="16" t="n">
+        <f aca="false">AVERAGE(A68:B68)</f>
+        <v>27</v>
+      </c>
+      <c r="E68" s="16" t="n">
+        <f aca="false">D68*C68</f>
+        <v>108</v>
+      </c>
+      <c r="F68" s="16" t="n">
+        <f aca="false">D68-$D$73</f>
+        <v>2.6</v>
+      </c>
+      <c r="G68" s="16" t="n">
+        <f aca="false">F68^2</f>
+        <v>6.76000000000001</v>
+      </c>
+      <c r="H68" s="16" t="n">
+        <f aca="false">G68*C68</f>
+        <v>27.04</v>
+      </c>
+      <c r="J68" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K68" s="23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="15" t="n">
+        <v>29</v>
+      </c>
+      <c r="B69" s="15" t="n">
+        <v>33</v>
+      </c>
+      <c r="C69" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" s="16" t="n">
+        <f aca="false">AVERAGE(A69:B69)</f>
+        <v>31</v>
+      </c>
+      <c r="E69" s="16" t="n">
+        <f aca="false">D69*C69</f>
+        <v>62</v>
+      </c>
+      <c r="F69" s="16" t="n">
+        <f aca="false">D69-$D$73</f>
+        <v>6.6</v>
+      </c>
+      <c r="G69" s="16" t="n">
+        <f aca="false">F69^2</f>
+        <v>43.56</v>
+      </c>
+      <c r="H69" s="16" t="n">
+        <f aca="false">G69*C69</f>
+        <v>87.12</v>
+      </c>
+      <c r="J69" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K69" s="23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="15" t="n">
+        <v>33</v>
+      </c>
+      <c r="B70" s="15" t="n">
+        <v>37</v>
+      </c>
+      <c r="C70" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D70" s="16" t="n">
+        <f aca="false">AVERAGE(A70:B70)</f>
+        <v>35</v>
+      </c>
+      <c r="E70" s="16" t="n">
+        <f aca="false">D70*C70</f>
+        <v>140</v>
+      </c>
+      <c r="F70" s="16" t="n">
+        <f aca="false">D70-$D$73</f>
+        <v>10.6</v>
+      </c>
+      <c r="G70" s="16" t="n">
+        <f aca="false">F70^2</f>
+        <v>112.36</v>
+      </c>
+      <c r="H70" s="16" t="n">
+        <f aca="false">G70*C70</f>
+        <v>449.44</v>
+      </c>
+      <c r="J70" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K70" s="23" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="17" t="n">
+        <f aca="false">SUM(C65:C70)</f>
+        <v>20</v>
+      </c>
+      <c r="D71" s="19"/>
+      <c r="E71" s="20" t="n">
+        <f aca="false">SUM(E65:E70)</f>
+        <v>488</v>
+      </c>
+      <c r="F71" s="19"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="20" t="n">
+        <f aca="false">SUM(H65:H70)</f>
+        <v>1096.8</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C73" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="22" t="n">
+        <f aca="false">E71/C71</f>
+        <v>24.4</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G73" s="13" t="n">
+        <f aca="false">D75/D73</f>
+        <v>0.303500140681535</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C74" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="22" t="n">
+        <f aca="false">H71/C71</f>
+        <v>54.84</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C75" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="22" t="n">
+        <f aca="false">D74^(1/2)</f>
+        <v>7.40540343262945</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B79" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C79" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D79" s="16" t="n">
+        <f aca="false">AVERAGE(A79:B79)</f>
+        <v>15</v>
+      </c>
+      <c r="E79" s="16" t="n">
+        <f aca="false">D79*C79</f>
+        <v>45</v>
+      </c>
+      <c r="F79" s="16" t="n">
+        <f aca="false">D79-$D$87</f>
+        <v>-10.8571428571429</v>
+      </c>
+      <c r="G79" s="16" t="n">
+        <f aca="false">F79^2</f>
+        <v>117.877551020408</v>
+      </c>
+      <c r="H79" s="16" t="n">
+        <f aca="false">G79*C79</f>
+        <v>353.632653061225</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="B80" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="C80" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" s="16" t="n">
+        <f aca="false">AVERAGE(A80:B80)</f>
+        <v>19</v>
+      </c>
+      <c r="E80" s="16" t="n">
+        <f aca="false">D80*C80</f>
+        <v>38</v>
+      </c>
+      <c r="F80" s="16" t="n">
+        <f aca="false">D80-$D$87</f>
+        <v>-6.85714285714286</v>
+      </c>
+      <c r="G80" s="16" t="n">
+        <f aca="false">F80^2</f>
+        <v>47.0204081632653</v>
+      </c>
+      <c r="H80" s="16" t="n">
+        <f aca="false">G80*C80</f>
+        <v>94.0408163265306</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="B81" s="15" t="n">
+        <v>25</v>
+      </c>
+      <c r="C81" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D81" s="16" t="n">
+        <f aca="false">AVERAGE(A81:B81)</f>
+        <v>23</v>
+      </c>
+      <c r="E81" s="16" t="n">
+        <f aca="false">D81*C81</f>
+        <v>115</v>
+      </c>
+      <c r="F81" s="16" t="n">
+        <f aca="false">D81-$D$87</f>
+        <v>-2.85714285714286</v>
+      </c>
+      <c r="G81" s="16" t="n">
+        <f aca="false">F81^2</f>
+        <v>8.16326530612245</v>
+      </c>
+      <c r="H81" s="16" t="n">
+        <f aca="false">G81*C81</f>
+        <v>40.8163265306123</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="15" t="n">
+        <v>25</v>
+      </c>
+      <c r="B82" s="15" t="n">
+        <v>29</v>
+      </c>
+      <c r="C82" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D82" s="16" t="n">
+        <f aca="false">AVERAGE(A82:B82)</f>
+        <v>27</v>
+      </c>
+      <c r="E82" s="16" t="n">
+        <f aca="false">D82*C82</f>
+        <v>81</v>
+      </c>
+      <c r="F82" s="16" t="n">
+        <f aca="false">D82-$D$87</f>
+        <v>1.14285714285714</v>
+      </c>
+      <c r="G82" s="16" t="n">
+        <f aca="false">F82^2</f>
+        <v>1.30612244897959</v>
+      </c>
+      <c r="H82" s="16" t="n">
+        <f aca="false">G82*C82</f>
+        <v>3.91836734693877</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="15" t="n">
+        <v>29</v>
+      </c>
+      <c r="B83" s="15" t="n">
+        <v>33</v>
+      </c>
+      <c r="C83" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D83" s="16" t="n">
+        <f aca="false">AVERAGE(A83:B83)</f>
+        <v>31</v>
+      </c>
+      <c r="E83" s="16" t="n">
+        <f aca="false">D83*C83</f>
+        <v>124</v>
+      </c>
+      <c r="F83" s="16" t="n">
+        <f aca="false">D83-$D$87</f>
+        <v>5.14285714285714</v>
+      </c>
+      <c r="G83" s="16" t="n">
+        <f aca="false">F83^2</f>
+        <v>26.4489795918367</v>
+      </c>
+      <c r="H83" s="16" t="n">
+        <f aca="false">G83*C83</f>
+        <v>105.795918367347</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="15" t="n">
+        <v>33</v>
+      </c>
+      <c r="B84" s="15" t="n">
+        <v>37</v>
+      </c>
+      <c r="C84" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D84" s="16" t="n">
+        <f aca="false">AVERAGE(A84:B84)</f>
+        <v>35</v>
+      </c>
+      <c r="E84" s="16" t="n">
+        <f aca="false">D84*C84</f>
+        <v>140</v>
+      </c>
+      <c r="F84" s="16" t="n">
+        <f aca="false">D84-$D$87</f>
+        <v>9.14285714285714</v>
+      </c>
+      <c r="G84" s="16" t="n">
+        <f aca="false">F84^2</f>
+        <v>83.5918367346939</v>
+      </c>
+      <c r="H84" s="16" t="n">
+        <f aca="false">G84*C84</f>
+        <v>334.367346938776</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="18"/>
+      <c r="C85" s="17" t="n">
+        <f aca="false">SUM(C79:C84)</f>
+        <v>21</v>
+      </c>
+      <c r="D85" s="19"/>
+      <c r="E85" s="20" t="n">
+        <f aca="false">SUM(E79:E84)</f>
+        <v>543</v>
+      </c>
+      <c r="F85" s="19"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="20" t="n">
+        <f aca="false">SUM(H79:H84)</f>
+        <v>932.571428571429</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C87" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="22" t="n">
+        <f aca="false">E85/C85</f>
+        <v>25.8571428571429</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G87" s="13" t="n">
+        <f aca="false">D89/D87</f>
+        <v>0.257721630711395</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C88" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="22" t="n">
+        <f aca="false">H85/C85</f>
+        <v>44.4081632653061</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C89" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D89" s="22" t="n">
+        <f aca="false">D88^(1/2)</f>
+        <v>6.66394502268034</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C93" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="22" t="n">
+        <v>43.02</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G93" s="13" t="n">
+        <f aca="false">D95/D93</f>
+        <v>0.125523012552301</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C94" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" s="22" t="e">
+        <f aca="false">#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C95" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95" s="22" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C99" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="22" t="n">
+        <v>36.08</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G99" s="13" t="n">
+        <f aca="false">D101/D99</f>
+        <v>0.199556541019956</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C100" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" s="22" t="e">
+        <f aca="false">#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C101" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D101" s="22" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B105" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C105" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D105" s="16" t="n">
+        <f aca="false">AVERAGE(A105:B105)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E105" s="16" t="n">
+        <f aca="false">D105*C105</f>
+        <v>4.5</v>
+      </c>
+      <c r="F105" s="16" t="n">
+        <f aca="false">D105-$D$113</f>
+        <v>-2.44444444444444</v>
+      </c>
+      <c r="G105" s="16" t="n">
+        <f aca="false">F105^2</f>
+        <v>5.97530864197531</v>
+      </c>
+      <c r="H105" s="16" t="n">
+        <f aca="false">G105*C105</f>
+        <v>17.9259259259259</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B106" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C106" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D106" s="16" t="n">
+        <f aca="false">AVERAGE(A106:B106)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E106" s="16" t="n">
+        <f aca="false">D106*C106</f>
+        <v>10</v>
+      </c>
+      <c r="F106" s="16" t="n">
+        <f aca="false">D106-$D$113</f>
+        <v>-1.44444444444444</v>
+      </c>
+      <c r="G106" s="16" t="n">
+        <f aca="false">F106^2</f>
+        <v>2.08641975308642</v>
+      </c>
+      <c r="H106" s="16" t="n">
+        <f aca="false">G106*C106</f>
+        <v>8.34567901234568</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B107" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C107" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="D107" s="16" t="n">
+        <f aca="false">AVERAGE(A107:B107)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E107" s="16" t="n">
+        <f aca="false">D107*C107</f>
+        <v>28</v>
+      </c>
+      <c r="F107" s="16" t="n">
+        <f aca="false">D107-$D$113</f>
+        <v>-0.444444444444445</v>
+      </c>
+      <c r="G107" s="16" t="n">
+        <f aca="false">F107^2</f>
+        <v>0.197530864197531</v>
+      </c>
+      <c r="H107" s="16" t="n">
+        <f aca="false">G107*C107</f>
+        <v>1.58024691358025</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B108" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C108" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="D108" s="16" t="n">
+        <f aca="false">AVERAGE(A108:B108)</f>
+        <v>4.5</v>
+      </c>
+      <c r="E108" s="16" t="n">
+        <f aca="false">D108*C108</f>
+        <v>27</v>
+      </c>
+      <c r="F108" s="16" t="n">
+        <f aca="false">D108-$D$113</f>
+        <v>0.555555555555555</v>
+      </c>
+      <c r="G108" s="16" t="n">
+        <f aca="false">F108^2</f>
+        <v>0.308641975308642</v>
+      </c>
+      <c r="H108" s="16" t="n">
+        <f aca="false">G108*C108</f>
+        <v>1.85185185185185</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B109" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C109" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D109" s="16" t="n">
+        <f aca="false">AVERAGE(A109:B109)</f>
+        <v>5.5</v>
+      </c>
+      <c r="E109" s="16" t="n">
+        <f aca="false">D109*C109</f>
+        <v>11</v>
+      </c>
+      <c r="F109" s="16" t="n">
+        <f aca="false">D109-$D$113</f>
+        <v>1.55555555555556</v>
+      </c>
+      <c r="G109" s="16" t="n">
+        <f aca="false">F109^2</f>
+        <v>2.41975308641975</v>
+      </c>
+      <c r="H109" s="16" t="n">
+        <f aca="false">G109*C109</f>
+        <v>4.83950617283951</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="B110" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C110" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D110" s="16" t="n">
+        <f aca="false">AVERAGE(A110:B110)</f>
+        <v>6.5</v>
+      </c>
+      <c r="E110" s="16" t="n">
+        <f aca="false">D110*C110</f>
+        <v>26</v>
+      </c>
+      <c r="F110" s="16" t="n">
+        <f aca="false">D110-$D$113</f>
+        <v>2.55555555555556</v>
+      </c>
+      <c r="G110" s="16" t="n">
+        <f aca="false">F110^2</f>
+        <v>6.53086419753086</v>
+      </c>
+      <c r="H110" s="16" t="n">
+        <f aca="false">G110*C110</f>
+        <v>26.1234567901235</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="18"/>
+      <c r="C111" s="17" t="n">
+        <f aca="false">SUM(C105:C110)</f>
+        <v>27</v>
+      </c>
+      <c r="D111" s="19"/>
+      <c r="E111" s="20" t="n">
+        <f aca="false">SUM(E105:E110)</f>
+        <v>106.5</v>
+      </c>
+      <c r="F111" s="19"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="20" t="n">
+        <f aca="false">SUM(H105:H110)</f>
+        <v>60.6666666666667</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C113" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="22" t="n">
+        <f aca="false">E111/C111</f>
+        <v>3.94444444444444</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G113" s="13" t="n">
+        <f aca="false">D115/D113</f>
+        <v>0.380020776429072</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C114" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" s="22" t="n">
+        <f aca="false">H111/C111</f>
+        <v>2.24691358024691</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C115" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D115" s="22" t="n">
+        <f aca="false">D114^(1/2)</f>
+        <v>1.49897084035912</v>
+      </c>
+    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A77:H77"/>
+    <mergeCell ref="A91:H91"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A103:H103"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
